--- a/SG_Ag_compendium/Data/dairy_sector.xlsx
+++ b/SG_Ag_compendium/Data/dairy_sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z620777\OneDrive - SCOTS Connect\R\SG_Ag_compendium\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scotsconnect-my.sharepoint.com/personal/jacqueline_massaya_gov_scot/Documents/R/SG_ag_comp/SG_Ag_compendium/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA3FB4D5-5AAE-453B-BEAA-D2645C914E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{FA3FB4D5-5AAE-453B-BEAA-D2645C914E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40C68B57-AABA-4CB5-A92B-6640C9E99A56}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{A31DD5EF-659B-45FE-9B3B-99211DD7E9DA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A31DD5EF-659B-45FE-9B3B-99211DD7E9DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,13 +54,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +409,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,8 +441,8 @@
       <c r="C2">
         <v>172980</v>
       </c>
-      <c r="D2">
-        <v>176577</v>
+      <c r="D2" s="1">
+        <v>173303</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -449,7 +456,7 @@
         <v>813</v>
       </c>
       <c r="D3">
-        <v>793</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -463,10 +470,11 @@
         <v>213</v>
       </c>
       <c r="D4">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SG_Ag_compendium/Data/dairy_sector.xlsx
+++ b/SG_Ag_compendium/Data/dairy_sector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scotsconnect-my.sharepoint.com/personal/jacqueline_massaya_gov_scot/Documents/R/SG_ag_comp/SG_Ag_compendium/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{FA3FB4D5-5AAE-453B-BEAA-D2645C914E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40C68B57-AABA-4CB5-A92B-6640C9E99A56}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{FA3FB4D5-5AAE-453B-BEAA-D2645C914E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2814D8C2-79DD-400A-AE5B-E77C7F52DFF2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A31DD5EF-659B-45FE-9B3B-99211DD7E9DA}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{A31DD5EF-659B-45FE-9B3B-99211DD7E9DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>172073</v>
+        <v>174163</v>
       </c>
       <c r="C2">
-        <v>172980</v>
+        <v>175304</v>
       </c>
       <c r="D2" s="1">
-        <v>173303</v>
+        <v>175575</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
